--- a/data/qa.xlsx
+++ b/data/qa.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22413"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_633E4841F3E502E9E2436B6D43064BE96497EDEB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBE7425F-DEC4-490E-BDD4-27FBB6E06150}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="113_{95A438FF-6599-43BF-9958-D25C707C7419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC41BEB0-11BA-48D5-9987-396AFD989ECC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="599">
   <si>
     <t>Q</t>
   </si>
@@ -201,7 +201,7 @@
     <t>What is the other name of Protractor?</t>
   </si>
   <si>
-    <t>D</t>
+    <t>D.</t>
   </si>
   <si>
     <t>When was the first Dollar Coin made?</t>
@@ -276,7 +276,7 @@
     <t>At which big event, Kevin was left alone in the home?</t>
   </si>
   <si>
-    <t>Christmas</t>
+    <t>Christmas.</t>
   </si>
   <si>
     <t>Name three wonders of the world.</t>
@@ -312,7 +312,7 @@
     <t>What is the capital of Italy?</t>
   </si>
   <si>
-    <t>Rome</t>
+    <t>Rome.</t>
   </si>
   <si>
     <t>Where is Sahara Desert situated?</t>
@@ -345,13 +345,13 @@
     <t>How many sides a hexagon has?</t>
   </si>
   <si>
-    <t>Six</t>
+    <t>Six.</t>
   </si>
   <si>
     <t>Who created Pooh?</t>
   </si>
   <si>
-    <t>A.A. Milne and Walt Disney</t>
+    <t>A.A. Milne and Walt Disney.</t>
   </si>
   <si>
     <t>Name three countries beginning with S.</t>
@@ -417,7 +417,7 @@
     <t>What is the national game of America?</t>
   </si>
   <si>
-    <t>Baseball</t>
+    <t>Baseball.</t>
   </si>
   <si>
     <t>What does WHO stands for?</t>
@@ -468,7 +468,7 @@
     <t>What is the National Dish of America?</t>
   </si>
   <si>
-    <t>Hamburger</t>
+    <t>Hamburger.</t>
   </si>
   <si>
     <t>Which colors are there in the flag of UK?</t>
@@ -543,25 +543,25 @@
     <t>Name the historical prince whose name was used by Bram Stoker in his famous novel.</t>
   </si>
   <si>
-    <t>Dracula</t>
+    <t>Dracula.</t>
   </si>
   <si>
     <t>Which country Brian Lara belongs to?</t>
   </si>
   <si>
-    <t>West Indies</t>
+    <t>West Indies.</t>
   </si>
   <si>
     <t>Who became the first female president and head of state in Latin America?</t>
   </si>
   <si>
-    <t>Isabel Martínez de Perón of Argentina.s</t>
+    <t>Isabel Martínez de Perón of Argentina.s.</t>
   </si>
   <si>
     <t>When is Easter celebrated?</t>
   </si>
   <si>
-    <t>1st April</t>
+    <t>1st April.</t>
   </si>
   <si>
     <t>After how many years Olympics are held?</t>
@@ -603,13 +603,13 @@
     <t>Which place on the Earth is the coldest place to live?</t>
   </si>
   <si>
-    <t>Oymyakon, Russia</t>
+    <t>Oymyakon, Russia.</t>
   </si>
   <si>
     <t>When was Google founded?</t>
   </si>
   <si>
-    <t>in 1998</t>
+    <t>in 1998.</t>
   </si>
   <si>
     <t>If you were eating du Barry, what would you be eating?</t>
@@ -699,13 +699,13 @@
     <t>Where is the United Nations Headquarter situated?</t>
   </si>
   <si>
-    <t>New York City</t>
+    <t>New York City.</t>
   </si>
   <si>
     <t>Does Iceland have an army?</t>
   </si>
   <si>
-    <t>No</t>
+    <t>No.</t>
   </si>
   <si>
     <t>How much water is present in a water melon?</t>
@@ -810,7 +810,7 @@
     <t>What is “The Guardian”?</t>
   </si>
   <si>
-    <t>A Newspaper</t>
+    <t>A Newspaper.</t>
   </si>
   <si>
     <t>Where is Times Square situated?</t>
@@ -822,9 +822,6 @@
     <t>In which state, President Trump was born?</t>
   </si>
   <si>
-    <t>New York City.</t>
-  </si>
-  <si>
     <t>What is “God save the Queen”?</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
     <t>Which country owns every Pandas in the world?</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>Who was the first openly announced gay politician?</t>
   </si>
   <si>
@@ -870,7 +864,7 @@
     <t>Which fish will evaporate if left in the sun?</t>
   </si>
   <si>
-    <t>Jelly Fish</t>
+    <t>Jelly Fish.</t>
   </si>
   <si>
     <t>Who saved the young Adolf Hitler from drowning?</t>
@@ -894,9 +888,6 @@
     <t>According to the old proverb, to which European capital city do all roads lead?</t>
   </si>
   <si>
-    <t>Rome.</t>
-  </si>
-  <si>
     <t>Which ocean is the deepest?</t>
   </si>
   <si>
@@ -909,7 +900,7 @@
     <t>Which country was the first to allow women voting?</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>New Zealand.</t>
   </si>
   <si>
     <t>When did Pope Benedict XVI resign?</t>
@@ -957,7 +948,7 @@
     <t>What is the freezing temperature of water?</t>
   </si>
   <si>
-    <t>0 Centigrade</t>
+    <t>0 Centigrade.</t>
   </si>
   <si>
     <t>What does PhD stand for?</t>
@@ -981,7 +972,7 @@
     <t>Which river passes through Madrid?</t>
   </si>
   <si>
-    <t>Manzanares River</t>
+    <t>Manzanares River.</t>
   </si>
   <si>
     <t>When was the first Calendar made?</t>
@@ -990,7 +981,7 @@
     <t>Which river is situated at London?</t>
   </si>
   <si>
-    <t>River Thames</t>
+    <t>River Thames.</t>
   </si>
   <si>
     <t>Which elements were discovered in 1774?</t>
@@ -1032,7 +1023,7 @@
     <t>Name all the planets.</t>
   </si>
   <si>
-    <t>Mercury, Venus, Earth, Mars, Jupiter, Saturn, Uranus, and Neptune</t>
+    <t>Mercury, Venus, Earth, Mars, Jupiter, Saturn, Uranus, and Neptune.</t>
   </si>
   <si>
     <t>Which color is the best absorbent?</t>
@@ -1056,7 +1047,7 @@
     <t>What is the Capital of Texas?.</t>
   </si>
   <si>
-    <t>Austin</t>
+    <t>Austin.</t>
   </si>
   <si>
     <t>What does NASA stand for?</t>
@@ -1092,13 +1083,13 @@
     <t>Who invented the piano?</t>
   </si>
   <si>
-    <t>Bartolomeo Cristofori</t>
+    <t>Bartolomeo Cristofori.</t>
   </si>
   <si>
     <t>Name the second person landed on the moon?</t>
   </si>
   <si>
-    <t>Buzz Aldrin</t>
+    <t>Buzz Aldrin.</t>
   </si>
   <si>
     <t>Which City hosted the Summer Olympics of 2012?</t>
@@ -1224,7 +1215,7 @@
     <t>What is the longest running TV show of the world?</t>
   </si>
   <si>
-    <t>Sabado Gigante</t>
+    <t>Sabado Gigante.</t>
   </si>
   <si>
     <t>What yeat did the Arab Spring begin?</t>
@@ -1257,7 +1248,7 @@
     <t>Who constructed the Massive bell of big Ben which cracked badly?</t>
   </si>
   <si>
-    <t>John Warner &amp;amp: Sons</t>
+    <t>John Warner &amp;: Sons.</t>
   </si>
   <si>
     <t>Who was the first black president of the United States?</t>
@@ -1287,13 +1278,13 @@
     <t>Where is the world’s largest gold deposit?</t>
   </si>
   <si>
-    <t>The Grasberg Mine</t>
+    <t>The Grasberg Mine.</t>
   </si>
   <si>
     <t>Ailurophobe is an extreme fear from which animal?</t>
   </si>
   <si>
-    <t>Cats</t>
+    <t>Cats.</t>
   </si>
   <si>
     <t>Does the male mosquito bite?</t>
@@ -1359,7 +1350,7 @@
     <t>What is the common alternative name of Black Leopard?</t>
   </si>
   <si>
-    <t>Panther</t>
+    <t>Panther.</t>
   </si>
   <si>
     <t>What is the abbreviation of MMS?</t>
@@ -1371,7 +1362,7 @@
     <t>What is the common name of the infant of the whale</t>
   </si>
   <si>
-    <t>Calf</t>
+    <t>Calf.</t>
   </si>
   <si>
     <t>How many stars are there on Australian Flag?</t>
@@ -1428,31 +1419,28 @@
     <t>Which country owns the Bermuda Islands?</t>
   </si>
   <si>
-    <t>Britain</t>
+    <t>Britain.</t>
   </si>
   <si>
     <t>Where was Jesus born?</t>
   </si>
   <si>
-    <t>Bethlehem</t>
-  </si>
-  <si>
     <t>Which is the longest verse of Bible?</t>
   </si>
   <si>
-    <t>Ester 8:9</t>
+    <t>Ester 8:9.</t>
   </si>
   <si>
     <t>Which is the longest chapter in Bible?</t>
   </si>
   <si>
-    <t>Psalm 119</t>
+    <t>Psalm 119.</t>
   </si>
   <si>
     <t>After Jesus was arrested, which apostle disowned him three times?</t>
   </si>
   <si>
-    <t>Peter</t>
+    <t>Peter.</t>
   </si>
   <si>
     <t>How many people did Jesus feed with five loaves of bread and two fish?</t>
@@ -1464,9 +1452,6 @@
     <t>How many books are in the Bible?</t>
   </si>
   <si>
-    <t>Answer 66</t>
-  </si>
-  <si>
     <t>How many books are in the Catholic Bible?</t>
   </si>
   <si>
@@ -1503,7 +1488,7 @@
     <t>How many versus are in the Bible?</t>
   </si>
   <si>
-    <t>31,102 verses</t>
+    <t>31,102 verses.</t>
   </si>
   <si>
     <t>Who baptizes Jesus?</t>
@@ -1563,7 +1548,7 @@
     <t>Where did the Velvet Revolution occur?</t>
   </si>
   <si>
-    <t>Czechoslovakia</t>
+    <t>Czechoslovakia.</t>
   </si>
   <si>
     <t>Which founding father is known for his large signature on the United States Declaration of Independence?</t>
@@ -1584,7 +1569,7 @@
     <t>When and where was the EU formed?</t>
   </si>
   <si>
-    <t>1 November 1993 in Maastricht, Netherlands</t>
+    <t>1 November 1993 in Maastricht, Netherlands.</t>
   </si>
   <si>
     <t>When was Abraham Lincoln born?</t>
@@ -1596,7 +1581,7 @@
     <t>Which country defeated the Arabs in the battle of tours?</t>
   </si>
   <si>
-    <t>France</t>
+    <t>France.</t>
   </si>
   <si>
     <t>When Germany did signed the unconditional surrender of WWII?</t>
@@ -1614,7 +1599,7 @@
     <t>Who was the first president of America which declared the war against Great Britain?</t>
   </si>
   <si>
-    <t>James Madison</t>
+    <t>James Madison.</t>
   </si>
   <si>
     <t>When was Russia founded as a country?</t>
@@ -1680,9 +1665,6 @@
     <t>Which country was the third to become an independent atomic power?</t>
   </si>
   <si>
-    <t>Britain.</t>
-  </si>
-  <si>
     <t>When was the Chernobyl disaster occurred?</t>
   </si>
   <si>
@@ -1740,13 +1722,13 @@
     <t>What was the first film of Brad pit?</t>
   </si>
   <si>
-    <t>Thelma &amp;amp: Louise</t>
+    <t>Thelma &amp;: Louise.</t>
   </si>
   <si>
     <t>Who directed the movie “Playing for Keeps”?</t>
   </si>
   <si>
-    <t>Harvey Weinstein</t>
+    <t>Harvey Weinstein.</t>
   </si>
   <si>
     <t>In which year, the movie 2012 was released?</t>
@@ -1809,7 +1791,7 @@
     <t>“When you got nothing, you have nothing to lose.” Which famous movie the dialogue belonged to?</t>
   </si>
   <si>
-    <t>Titanic</t>
+    <t>Titanic.</t>
   </si>
   <si>
     <t>What was the name of the whale in the movie “Free Willy”?</t>
@@ -1821,13 +1803,13 @@
     <t>Name the monkey of the film “Aladdin”.</t>
   </si>
   <si>
-    <t>Abu</t>
+    <t>Abu.</t>
   </si>
   <si>
     <t>What is the name of the kingdom where the 2013 animated movie Frozen is set?</t>
   </si>
   <si>
-    <t>Arendelle</t>
+    <t>Arendelle.</t>
   </si>
   <si>
     <t>Name three richest actresses in the world.</t>
@@ -2202,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A316"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2464,24 +2446,27 @@
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="B32" t="str">
+        <f>"4."</f>
+        <v>4.</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B33">
-        <v>193</v>
+      <c r="B33" t="str">
+        <f>"193."</f>
+        <v>193.</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B34">
-        <v>32</v>
+      <c r="B34" t="str">
+        <f>"32."</f>
+        <v>32.</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2616,8 +2601,9 @@
       <c r="A51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B51">
-        <v>1933</v>
+      <c r="B51" t="str">
+        <f>"1933."</f>
+        <v>1933.</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2728,8 +2714,9 @@
       <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B65">
-        <v>14</v>
+      <c r="B65" t="str">
+        <f>"14."</f>
+        <v>14.</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2808,8 +2795,9 @@
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B75">
-        <v>47156</v>
+      <c r="B75" t="str">
+        <f>"47156."</f>
+        <v>47156.</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2888,8 +2876,9 @@
       <c r="A85" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B85">
-        <v>118</v>
+      <c r="B85" t="str">
+        <f>"118."</f>
+        <v>118.</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2968,8 +2957,9 @@
       <c r="A95" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B95">
-        <v>1929</v>
+      <c r="B95" t="str">
+        <f>"1929."</f>
+        <v>1929.</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2992,8 +2982,9 @@
       <c r="A98" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B98">
-        <v>4</v>
+      <c r="B98" t="str">
+        <f>"4."</f>
+        <v>4.</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3080,16 +3071,18 @@
       <c r="A109" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B109">
-        <v>64</v>
+      <c r="B109" t="str">
+        <f>"64."</f>
+        <v>64.</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B110">
-        <v>8</v>
+      <c r="B110" t="str">
+        <f>"8."</f>
+        <v>8.</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3280,8 +3273,9 @@
       <c r="A134" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B134">
-        <v>2007</v>
+      <c r="B134" t="str">
+        <f>"2007."</f>
+        <v>2007.</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3321,108 +3315,108 @@
         <v>263</v>
       </c>
       <c r="B139" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
         <v>265</v>
-      </c>
-      <c r="B140" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141" t="s">
         <v>267</v>
-      </c>
-      <c r="B141" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" t="s">
         <v>269</v>
-      </c>
-      <c r="B142" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" t="s">
         <v>271</v>
-      </c>
-      <c r="B143" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B150" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B151" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B152" t="s">
         <v>27</v>
@@ -3430,1303 +3424,1313 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B167">
-        <v>1582</v>
+        <v>315</v>
+      </c>
+      <c r="B167" t="str">
+        <f>"1582."</f>
+        <v>1582.</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B186" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B188" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B193" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B197" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B199" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B200" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B201" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B202" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B203" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B204" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B206" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B208">
-        <v>2010</v>
+        <v>396</v>
+      </c>
+      <c r="B208" t="str">
+        <f>"2010."</f>
+        <v>2010.</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B210" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B211" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B212" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B213" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B214" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B215" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B216">
-        <v>12</v>
+        <v>411</v>
+      </c>
+      <c r="B216" t="str">
+        <f>"12."</f>
+        <v>12.</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B217" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B218">
-        <v>88</v>
+        <v>414</v>
+      </c>
+      <c r="B218" t="str">
+        <f>"88."</f>
+        <v>88.</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B229" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B230" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B231" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B232" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B233" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B234">
-        <v>5</v>
+        <v>445</v>
+      </c>
+      <c r="B234" t="str">
+        <f>"5."</f>
+        <v>5.</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B235" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B236" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B237" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B238" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B239" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B240" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B241" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B242" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B243" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B244" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B245" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B246" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B247" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B248" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B249" t="s">
-        <v>478</v>
+        <v>473</v>
+      </c>
+      <c r="B249" t="str">
+        <f>"66."</f>
+        <v>66.</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B250">
-        <v>73</v>
+        <v>474</v>
+      </c>
+      <c r="B250" t="str">
+        <f>"73."</f>
+        <v>73.</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B251" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B252" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B253" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B254" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B255" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B256" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B257" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B258" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B259" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B260" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B261" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B262" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B263" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B264" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B265" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B266" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B267" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B268" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B269" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B270" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B271" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B272" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B273" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B275" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B276" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B277" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B278" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B279" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B280" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B281" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B282" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B283" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B284" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B285" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B286" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B287" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B289" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B290" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B291" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B292">
-        <v>1997</v>
+        <v>553</v>
+      </c>
+      <c r="B292" t="str">
+        <f>"1997."</f>
+        <v>1997.</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B293" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B294" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B295" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B296">
-        <v>1993</v>
+        <v>560</v>
+      </c>
+      <c r="B296" t="str">
+        <f>"1993."</f>
+        <v>1993.</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B297" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B298" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B299" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B300">
-        <v>2009</v>
+        <v>567</v>
+      </c>
+      <c r="B300" t="str">
+        <f>"2009."</f>
+        <v>2009.</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B301" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B302" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B303" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B304" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B305" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B306" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B307" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B308" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B309" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B310" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B311" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B312" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B313" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B314" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B315" t="s">
         <v>33</v>
@@ -4734,10 +4738,10 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B316" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/data/qa.xlsx
+++ b/data/qa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22413"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="113_{95A438FF-6599-43BF-9958-D25C707C7419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC41BEB0-11BA-48D5-9987-396AFD989ECC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="113_{95A438FF-6599-43BF-9958-D25C707C7419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5E8B522-7486-47FD-A427-562C603550C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2190,7 +2190,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="99.5703125" customWidth="1"/>
+    <col min="1" max="1" width="103" customWidth="1"/>
+    <col min="2" max="2" width="99.5703125" customWidth="1"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>

--- a/data/qa.xlsx
+++ b/data/qa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22413"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="113_{95A438FF-6599-43BF-9958-D25C707C7419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5E8B522-7486-47FD-A427-562C603550C8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="113_{95A438FF-6599-43BF-9958-D25C707C7419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51FD574B-ABFA-4100-AAD5-8C03C8C0FF12}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2184,13 +2184,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="103" customWidth="1"/>
+    <col min="1" max="1" width="96.42578125" customWidth="1"/>
     <col min="2" max="2" width="99.5703125" customWidth="1"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
